--- a/homework/challenge problem/new.xlsx
+++ b/homework/challenge problem/new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>social_economics</t>
   </si>
@@ -33,19 +33,28 @@
     <t>deliquency_no</t>
   </si>
   <si>
-    <t>low</t>
+    <t xml:space="preserve"> social_economics low</t>
   </si>
   <si>
-    <t>median</t>
+    <t xml:space="preserve"> social_economics median</t>
   </si>
   <si>
-    <t>high</t>
+    <t>social_economics median</t>
   </si>
   <si>
-    <t>yes</t>
+    <t xml:space="preserve"> social_economics high</t>
   </si>
   <si>
-    <t>no</t>
+    <t>social_economics high</t>
+  </si>
+  <si>
+    <t>Boy_Scout yes</t>
+  </si>
+  <si>
+    <t>Boy_Scout no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boy_Scout no</t>
   </si>
 </sst>
 </file>
@@ -133,6 +142,3210 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Boy_Scout yes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Boy_Scout no</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Boy_Scout yes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v> Boy_Scout no</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Boy_Scout yes</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Boy_Scout no</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v> social_economics low</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v> social_economics low</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v> social_economics median</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>social_economics median</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> social_economics high</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>social_economics high</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D41-497C-912E-C12071524418}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Boy_Scout yes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Boy_Scout no</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Boy_Scout yes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v> Boy_Scout no</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Boy_Scout yes</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Boy_Scout no</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v> social_economics low</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v> social_economics low</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v> social_economics median</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>social_economics median</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> social_economics high</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>social_economics high</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D41-497C-912E-C12071524418}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="703651456"/>
+        <c:axId val="703654408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="703651456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703654408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703654408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703651456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$7</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v> social_economics low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> social_economics low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> social_economics median</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>social_economics median</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> social_economics high</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>social_economics high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1196-4790-8BB7-B2C29150A058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$B$7</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v> social_economics low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> social_economics low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> social_economics median</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>social_economics median</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> social_economics high</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>social_economics high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1196-4790-8BB7-B2C29150A058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="851838704"/>
+        <c:axId val="851840016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="851838704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="851840016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="851840016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="851838704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12840786191115033"/>
+          <c:y val="4.7313593754307583E-2"/>
+          <c:w val="0.70163385650213572"/>
+          <c:h val="0.82861004583085274"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v> social_economics low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boy_Scout yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deliquency_no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6280-4B7E-934D-11BBB5CB4328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v> social_economics low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boy_Scout no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deliquency_no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6280-4B7E-934D-11BBB5CB4328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v> social_economics median</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boy_Scout yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deliquency_no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6280-4B7E-934D-11BBB5CB4328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>social_economics median</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Boy_Scout no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deliquency_no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6280-4B7E-934D-11BBB5CB4328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v> social_economics high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boy_Scout yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deliquency_no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6280-4B7E-934D-11BBB5CB4328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>social_economics high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boy_Scout no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>deliquency_yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deliquency_no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6280-4B7E-934D-11BBB5CB4328}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="703309096"/>
+        <c:axId val="703302208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="703309096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703302208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703302208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703309096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474955</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>498230</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B938DCA-FF59-4CEA-9510-8F984EFE373C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>926855</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>359018</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD34F48C-9F5D-43EF-95CD-FEE06A82728F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1003789</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4A0D93-BDE7-4F2E-BDA3-92690158F02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -443,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>40</v>
@@ -457,7 +3670,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>18</v>
@@ -468,10 +3681,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>18</v>
@@ -482,10 +3695,10 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -496,10 +3709,10 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -510,5 +3723,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/homework/challenge problem/new.xlsx
+++ b/homework/challenge problem/new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3613,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="104" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
